--- a/Resultados/Romanas con pesos en posiciones.xlsx
+++ b/Resultados/Romanas con pesos en posiciones.xlsx
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -213,6 +213,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I24" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K10:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,26 +1150,26 @@
       <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="16">
         <v>10</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="16">
         <v>100</v>
       </c>
       <c r="P10" s="7">
         <v>1</v>
       </c>
-      <c r="Q10" s="7">
-        <v>501</v>
+      <c r="Q10" s="16">
+        <v>500</v>
       </c>
       <c r="S10" s="7">
         <v>1</v>
       </c>
-      <c r="T10" s="7">
-        <v>1003</v>
+      <c r="T10" s="16">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1189,26 +1194,26 @@
       <c r="J11" s="10">
         <v>2</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="17">
         <v>10</v>
       </c>
       <c r="M11" s="10">
         <v>2</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="17">
         <v>100</v>
       </c>
       <c r="P11" s="10">
         <v>2</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="17">
         <v>500</v>
       </c>
       <c r="S11" s="10">
         <v>2</v>
       </c>
-      <c r="T11" s="10">
-        <v>1002</v>
+      <c r="T11" s="17">
+        <v>1000.2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1233,26 +1238,26 @@
       <c r="J12" s="7">
         <v>3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="16">
         <v>10</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="16">
         <v>100</v>
       </c>
       <c r="P12" s="7">
         <v>3</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="16">
         <v>500</v>
       </c>
       <c r="S12" s="7">
         <v>3</v>
       </c>
-      <c r="T12" s="7">
-        <v>1002</v>
+      <c r="T12" s="16">
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1277,25 +1282,25 @@
       <c r="J13" s="10">
         <v>4</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="17">
         <v>10</v>
       </c>
       <c r="M13" s="10">
         <v>4</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="17">
         <v>100</v>
       </c>
       <c r="P13" s="10">
         <v>4</v>
       </c>
-      <c r="Q13" s="10">
-        <v>501</v>
+      <c r="Q13" s="17">
+        <v>500.2</v>
       </c>
       <c r="S13" s="10">
         <v>4</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -1321,26 +1326,26 @@
       <c r="J14" s="13">
         <v>5</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="18">
         <v>10</v>
       </c>
       <c r="M14" s="13">
         <v>5</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="18">
         <v>100</v>
       </c>
       <c r="P14" s="13">
         <v>5</v>
       </c>
-      <c r="Q14" s="13">
-        <v>501</v>
+      <c r="Q14" s="18">
+        <v>500</v>
       </c>
       <c r="S14" s="13">
         <v>5</v>
       </c>
-      <c r="T14" s="13">
-        <v>1002</v>
+      <c r="T14" s="18">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1484,25 +1489,25 @@
       <c r="J20" s="8">
         <v>1</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="14">
         <v>10</v>
       </c>
       <c r="M20" s="9">
         <v>1</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="19">
         <v>100</v>
       </c>
       <c r="P20" s="8">
         <v>1</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="14">
         <v>501</v>
       </c>
       <c r="S20" s="9">
         <v>1</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="19">
         <v>1001</v>
       </c>
     </row>
@@ -1528,25 +1533,25 @@
       <c r="J21" s="11">
         <v>2</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="15">
         <v>10</v>
       </c>
       <c r="M21" s="12">
         <v>2</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="20">
         <v>100</v>
       </c>
       <c r="P21" s="11">
         <v>2</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="15">
         <v>501</v>
       </c>
       <c r="S21" s="12">
         <v>2</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="20">
         <v>1002</v>
       </c>
     </row>
@@ -1572,25 +1577,25 @@
       <c r="J22" s="8">
         <v>3</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="14">
         <v>10</v>
       </c>
       <c r="M22" s="9">
         <v>3</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="19">
         <v>100</v>
       </c>
       <c r="P22" s="8">
         <v>3</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="14">
         <v>501</v>
       </c>
       <c r="S22" s="9">
         <v>3</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="19">
         <v>1001</v>
       </c>
     </row>
@@ -1616,25 +1621,25 @@
       <c r="J23" s="11">
         <v>4</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="15">
         <v>10</v>
       </c>
       <c r="M23" s="12">
         <v>4</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="20">
         <v>100</v>
       </c>
       <c r="P23" s="11">
         <v>4</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="15">
         <v>501</v>
       </c>
       <c r="S23" s="12">
         <v>4</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="20">
         <v>1003</v>
       </c>
     </row>
@@ -1660,25 +1665,25 @@
       <c r="J24" s="8">
         <v>5</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="14">
         <v>10</v>
       </c>
       <c r="M24" s="9">
         <v>5</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="19">
         <v>100</v>
       </c>
       <c r="P24" s="8">
         <v>5</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="14">
         <v>501</v>
       </c>
       <c r="S24" s="9">
         <v>5</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="19">
         <v>1002</v>
       </c>
     </row>
